--- a/va_facility_data_2025-02-20/Granbury VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Granbury%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Granbury VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Granbury%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2edc34c5f3d94b8f957aed66bb9456ce"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rdd6640b0b0cb46f39c5d3313e42d82fd"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R30a87ecf4a014fd7bb9bd5b24357dfa3"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R676a4fb6c8954976b8db7e2c816763d4"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1bd48393ea52427e8f7d16967721b3ae"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9ac41bd2d2854c45b17b8f6a859cfd4c"/>
   </x:sheets>
 </x:workbook>
 </file>
